--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ngf</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.920265</v>
+      </c>
+      <c r="H2">
+        <v>2.760795</v>
+      </c>
+      <c r="I2">
+        <v>0.1759838360772107</v>
+      </c>
+      <c r="J2">
+        <v>0.1759838360772107</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>2.960814666666666</v>
-      </c>
-      <c r="H2">
-        <v>8.882444</v>
-      </c>
-      <c r="I2">
-        <v>0.2614555410777428</v>
-      </c>
-      <c r="J2">
-        <v>0.2614555410777428</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.0002123333333333333</v>
+        <v>0.220618</v>
       </c>
       <c r="N2">
-        <v>0.000637</v>
+        <v>0.6618539999999999</v>
       </c>
       <c r="O2">
-        <v>0.0008844802186068535</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="P2">
-        <v>0.0008844802186068534</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="Q2">
-        <v>0.0006286796475555556</v>
+        <v>0.20302702377</v>
       </c>
       <c r="R2">
-        <v>0.005658116828</v>
+        <v>1.82724321393</v>
       </c>
       <c r="S2">
-        <v>0.0002312522541284152</v>
+        <v>0.1165338727794359</v>
       </c>
       <c r="T2">
-        <v>0.0002312522541284151</v>
+        <v>0.1165338727794359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.960814666666666</v>
+        <v>0.920265</v>
       </c>
       <c r="H3">
-        <v>8.882444</v>
+        <v>2.760795</v>
       </c>
       <c r="I3">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
       <c r="J3">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.220618</v>
+        <v>0.1125486666666667</v>
       </c>
       <c r="N3">
-        <v>0.6618539999999999</v>
+        <v>0.337646</v>
       </c>
       <c r="O3">
-        <v>0.9189902207312721</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="P3">
-        <v>0.9189902207312721</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="Q3">
-        <v>0.6532090101306666</v>
+        <v>0.10357459873</v>
       </c>
       <c r="R3">
-        <v>5.878881091175999</v>
+        <v>0.9321713885699999</v>
       </c>
       <c r="S3">
-        <v>0.2402750854064491</v>
+        <v>0.05944996329777477</v>
       </c>
       <c r="T3">
-        <v>0.2402750854064491</v>
+        <v>0.05944996329777476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.5933296666666666</v>
+      </c>
+      <c r="H4">
+        <v>1.779989</v>
+      </c>
+      <c r="I4">
+        <v>0.1134634380297118</v>
+      </c>
+      <c r="J4">
+        <v>0.1134634380297118</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>2.960814666666666</v>
-      </c>
-      <c r="H4">
-        <v>8.882444</v>
-      </c>
-      <c r="I4">
-        <v>0.2614555410777428</v>
-      </c>
-      <c r="J4">
-        <v>0.2614555410777428</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.01923533333333333</v>
+        <v>0.220618</v>
       </c>
       <c r="N4">
-        <v>0.05770599999999999</v>
+        <v>0.6618539999999999</v>
       </c>
       <c r="O4">
-        <v>0.080125299050121</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="P4">
-        <v>0.080125299050121</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="Q4">
-        <v>0.05695225705155554</v>
+        <v>0.1308992044006667</v>
       </c>
       <c r="R4">
-        <v>0.5125703134639999</v>
+        <v>1.178092839606</v>
       </c>
       <c r="S4">
-        <v>0.02094920341716534</v>
+        <v>0.07513379721232302</v>
       </c>
       <c r="T4">
-        <v>0.02094920341716534</v>
+        <v>0.07513379721232302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,72 +726,72 @@
         <v>1.779989</v>
       </c>
       <c r="I5">
-        <v>0.05239413691855872</v>
+        <v>0.1134634380297118</v>
       </c>
       <c r="J5">
-        <v>0.05239413691855872</v>
+        <v>0.1134634380297118</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0002123333333333333</v>
+        <v>0.1125486666666667</v>
       </c>
       <c r="N5">
-        <v>0.000637</v>
+        <v>0.337646</v>
       </c>
       <c r="O5">
-        <v>0.0008844802186068535</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="P5">
-        <v>0.0008844802186068534</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="Q5">
-        <v>0.0001259836658888889</v>
+        <v>0.06677846287711112</v>
       </c>
       <c r="R5">
-        <v>0.001133852993</v>
+        <v>0.601006165894</v>
       </c>
       <c r="S5">
-        <v>4.634157767544423E-05</v>
+        <v>0.03832964081738877</v>
       </c>
       <c r="T5">
-        <v>4.634157767544423E-05</v>
+        <v>0.03832964081738877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5933296666666666</v>
+        <v>3.715664</v>
       </c>
       <c r="H6">
-        <v>1.779989</v>
+        <v>11.146992</v>
       </c>
       <c r="I6">
-        <v>0.05239413691855872</v>
+        <v>0.7105527258930776</v>
       </c>
       <c r="J6">
-        <v>0.05239413691855872</v>
+        <v>0.7105527258930775</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,456 +806,84 @@
         <v>0.6618539999999999</v>
       </c>
       <c r="O6">
-        <v>0.9189902207312721</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="P6">
-        <v>0.9189902207312721</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="Q6">
-        <v>0.1308992044006667</v>
+        <v>0.819742360352</v>
       </c>
       <c r="R6">
-        <v>1.178092839606</v>
+        <v>7.377681243168</v>
       </c>
       <c r="S6">
-        <v>0.04814969945181077</v>
+        <v>0.4705174225545142</v>
       </c>
       <c r="T6">
-        <v>0.04814969945181077</v>
+        <v>0.4705174225545142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.715664</v>
+      </c>
+      <c r="H7">
+        <v>11.146992</v>
+      </c>
+      <c r="I7">
+        <v>0.7105527258930776</v>
+      </c>
+      <c r="J7">
+        <v>0.7105527258930775</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.5933296666666666</v>
-      </c>
-      <c r="H7">
-        <v>1.779989</v>
-      </c>
-      <c r="I7">
-        <v>0.05239413691855872</v>
-      </c>
-      <c r="J7">
-        <v>0.05239413691855872</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M7">
-        <v>0.01923533333333333</v>
+        <v>0.1125486666666667</v>
       </c>
       <c r="N7">
-        <v>0.05770599999999999</v>
+        <v>0.337646</v>
       </c>
       <c r="O7">
-        <v>0.080125299050121</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="P7">
-        <v>0.080125299050121</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="Q7">
-        <v>0.01141289391488889</v>
+        <v>0.4181930289813334</v>
       </c>
       <c r="R7">
-        <v>0.102716045234</v>
+        <v>3.763737260832</v>
       </c>
       <c r="S7">
-        <v>0.004198095889072503</v>
+        <v>0.2400353033385634</v>
       </c>
       <c r="T7">
-        <v>0.004198095889072503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7.765557333333334</v>
-      </c>
-      <c r="H8">
-        <v>23.296672</v>
-      </c>
-      <c r="I8">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="J8">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.0002123333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.000637</v>
-      </c>
-      <c r="O8">
-        <v>0.0008844802186068535</v>
-      </c>
-      <c r="P8">
-        <v>0.0008844802186068534</v>
-      </c>
-      <c r="Q8">
-        <v>0.001648886673777778</v>
-      </c>
-      <c r="R8">
-        <v>0.014839980064</v>
-      </c>
-      <c r="S8">
-        <v>0.0006065231498999976</v>
-      </c>
-      <c r="T8">
-        <v>0.0006065231498999976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.765557333333334</v>
-      </c>
-      <c r="H9">
-        <v>23.296672</v>
-      </c>
-      <c r="I9">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="J9">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.220618</v>
-      </c>
-      <c r="N9">
-        <v>0.6618539999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.9189902207312721</v>
-      </c>
-      <c r="P9">
-        <v>0.9189902207312721</v>
-      </c>
-      <c r="Q9">
-        <v>1.713221727765333</v>
-      </c>
-      <c r="R9">
-        <v>15.418995549888</v>
-      </c>
-      <c r="S9">
-        <v>0.6301880264582621</v>
-      </c>
-      <c r="T9">
-        <v>0.6301880264582621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>7.765557333333334</v>
-      </c>
-      <c r="H10">
-        <v>23.296672</v>
-      </c>
-      <c r="I10">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="J10">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.01923533333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.05770599999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.080125299050121</v>
-      </c>
-      <c r="P10">
-        <v>0.080125299050121</v>
-      </c>
-      <c r="Q10">
-        <v>0.1493730838257778</v>
-      </c>
-      <c r="R10">
-        <v>1.344357754432</v>
-      </c>
-      <c r="S10">
-        <v>0.0549450940159015</v>
-      </c>
-      <c r="T10">
-        <v>0.0549450940159015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.004650666666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.013952</v>
-      </c>
-      <c r="I11">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="J11">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.0002123333333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.000637</v>
-      </c>
-      <c r="O11">
-        <v>0.0008844802186068535</v>
-      </c>
-      <c r="P11">
-        <v>0.0008844802186068534</v>
-      </c>
-      <c r="Q11">
-        <v>9.874915555555556E-07</v>
-      </c>
-      <c r="R11">
-        <v>8.887424E-06</v>
-      </c>
-      <c r="S11">
-        <v>3.63236902996478E-07</v>
-      </c>
-      <c r="T11">
-        <v>3.63236902996478E-07</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.004650666666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.013952</v>
-      </c>
-      <c r="I12">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="J12">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.220618</v>
-      </c>
-      <c r="N12">
-        <v>0.6618539999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.9189902207312721</v>
-      </c>
-      <c r="P12">
-        <v>0.9189902207312721</v>
-      </c>
-      <c r="Q12">
-        <v>0.001026020778666667</v>
-      </c>
-      <c r="R12">
-        <v>0.009234187008</v>
-      </c>
-      <c r="S12">
-        <v>0.0003774094147501271</v>
-      </c>
-      <c r="T12">
-        <v>0.0003774094147501271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.004650666666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.013952</v>
-      </c>
-      <c r="I13">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="J13">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01923533333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.05770599999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.080125299050121</v>
-      </c>
-      <c r="P13">
-        <v>0.080125299050121</v>
-      </c>
-      <c r="Q13">
-        <v>8.945712355555554E-05</v>
-      </c>
-      <c r="R13">
-        <v>0.000805114112</v>
-      </c>
-      <c r="S13">
-        <v>3.290572798165582E-05</v>
-      </c>
-      <c r="T13">
-        <v>3.290572798165582E-05</v>
+        <v>0.2400353033385633</v>
       </c>
     </row>
   </sheetData>
